--- a/output/data_analysis/data_analysis.xlsx
+++ b/output/data_analysis/data_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxwe\Documents\GitHub\WikiHIT\output\data_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFFD248-4715-44DC-8992-BF913F49CD9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AE3AFF-687A-4EFD-A5AF-44C01AA96114}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D293DC4-C516-407B-87CA-41C3427F349D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3D293DC4-C516-407B-87CA-41C3427F349D}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="3" r:id="rId1"/>
@@ -2900,7 +2900,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Percentage of Answers </a:t>
+                  <a:t>Percentage of Labels </a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3898,7 +3898,7 @@
             <c:numRef>
               <c:f>Category!$C$4:$C$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0.3</c:v>
@@ -4053,7 +4053,7 @@
             <c:numRef>
               <c:f>Category!$D$4:$D$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0.32500000000000001</c:v>
@@ -4208,7 +4208,7 @@
             <c:numRef>
               <c:f>Category!$E$4:$E$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0.116666666666666</c:v>
@@ -4363,7 +4363,7 @@
             <c:numRef>
               <c:f>Category!$F$4:$F$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0.133333333333333</c:v>
@@ -4518,7 +4518,7 @@
             <c:numRef>
               <c:f>Category!$G$4:$G$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0.125</c:v>
@@ -4668,7 +4668,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percnetage of Labels</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4923,7 +4978,7 @@
             <c:numRef>
               <c:f>'Edit Distance'!$B$2:$B$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.58064516129032195</c:v>
@@ -5024,7 +5079,7 @@
             <c:numRef>
               <c:f>'Edit Distance'!$C$2:$C$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>9.6774193548387094E-2</c:v>
@@ -5125,7 +5180,7 @@
             <c:numRef>
               <c:f>'Edit Distance'!$D$2:$D$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>9.6774193548387094E-2</c:v>
@@ -5226,7 +5281,7 @@
             <c:numRef>
               <c:f>'Edit Distance'!$E$2:$E$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.12903225806451599</c:v>
@@ -5327,7 +5382,7 @@
             <c:numRef>
               <c:f>'Edit Distance'!$F$2:$F$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>9.6774193548387094E-2</c:v>
@@ -5385,6 +5440,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Levenshtein Distance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (number of required changes)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5450,7 +5565,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Percentage</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Labels</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5524,6 +5699,698 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Edit Distance'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1: The article explains exactly how to do the step</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Edit Distance'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0 - 4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 - 9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 - 14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15 - 19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20 - 24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25 - 29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30 - 34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35 - 39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Edit Distance'!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.58064516129032195</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31578947368421001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21548821548821501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17747440273037501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17241379310344801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27777777777777701</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28787878787878701</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.27160493827160398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0A18-4639-B189-8A8F0C4FAD8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Edit Distance'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2. The article explains something close enough, but it’s too general.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Edit Distance'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0 - 4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 - 9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 - 14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15 - 19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20 - 24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25 - 29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30 - 34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35 - 39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Edit Distance'!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>9.6774193548387094E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20526315789473601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.168350168350168</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18088737201365099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14285714285714199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15151515151515099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18518518518518501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0A18-4639-B189-8A8F0C4FAD8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Edit Distance'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3: The article explains something close enough, but it’s too specific.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Edit Distance'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0 - 4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 - 9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 - 14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15 - 19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20 - 24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25 - 29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30 - 34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35 - 39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Edit Distance'!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>9.6774193548387094E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.157894736842105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.228956228956228</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.215017064846416</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27777777777777701</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19696969696969599</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19753086419752999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0A18-4639-B189-8A8F0C4FAD8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Edit Distance'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4: The article explains something related, but I don’t think I can do the step with the instructions.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Edit Distance'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0 - 4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 - 9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 - 14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15 - 19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20 - 24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25 - 29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30 - 34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35 - 39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Edit Distance'!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.12903225806451599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21212121212121199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19453924914675699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23448275862068901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14285714285714199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28787878787878701</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19753086419752999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0A18-4639-B189-8A8F0C4FAD8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Edit Distance'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5: The article is unrelated to the step.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Edit Distance'!$A$2:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0 - 4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5 - 9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10 - 14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15 - 19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20 - 24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25 - 29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30 - 34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35 - 39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Edit Distance'!$F$2:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>9.6774193548387094E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.121052631578947</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17508417508417501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23208191126279801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19310344827586201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.158730158730158</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.5757575757575704E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.148148148148148</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0A18-4639-B189-8A8F0C4FAD8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="338056304"/>
+        <c:axId val="483333776"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="338056304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="483333776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="483333776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="338056304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -5841,6 +6708,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
   <cs:axisTitle>
@@ -9362,6 +10269,511 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -9581,6 +10993,67 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF9621ED-63EB-4070-95AA-67B81E94B172}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="781050" y="9201150"/>
+          <a:ext cx="5562600" cy="3171825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9658,6 +11131,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62664A28-9923-42D5-B1FA-5D4710F1008B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9965,7 +11474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1515030C-4733-4FF5-A9FE-CEB797CB3EA3}">
   <dimension ref="B1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -10020,8 +11529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D27AC0-D135-4DF7-8A98-4EA086B77247}">
   <dimension ref="B2:O146"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10408,7 +11917,7 @@
   <dimension ref="B3:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10434,19 +11943,19 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="7">
         <v>0.3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="7">
         <v>0.32500000000000001</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="7">
         <v>0.116666666666666</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="7">
         <v>0.133333333333333</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="7">
         <v>0.125</v>
       </c>
     </row>
@@ -10454,19 +11963,19 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="7">
         <v>0.1</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="7">
         <v>0.133333333333333</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="7">
         <v>6.6666666666666596E-2</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="7">
         <v>0.3</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="7">
         <v>0.4</v>
       </c>
     </row>
@@ -10474,19 +11983,19 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="7">
         <v>0.35555555555555501</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="7">
         <v>0.1</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="7">
         <v>0.11111111111111099</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="7">
         <v>0.233333333333333</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="7">
         <v>0.2</v>
       </c>
     </row>
@@ -10494,19 +12003,19 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="7">
         <v>0.22666666666666599</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="7">
         <v>0.146666666666666</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="7">
         <v>0.193333333333333</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="7">
         <v>0.22</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="7">
         <v>0.21333333333333299</v>
       </c>
     </row>
@@ -10514,19 +12023,19 @@
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="7">
         <v>0.16666666666666599</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="7">
         <v>0.1</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="7">
         <v>0.4</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="7">
         <v>0.3</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="7">
         <v>3.3333333333333298E-2</v>
       </c>
     </row>
@@ -10534,19 +12043,19 @@
       <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="7">
         <v>7.2727272727272696E-2</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="7">
         <v>0.20909090909090899</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="7">
         <v>0.236363636363636</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="7">
         <v>0.34545454545454501</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="7">
         <v>0.13636363636363599</v>
       </c>
     </row>
@@ -10554,19 +12063,19 @@
       <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="7">
         <v>0.122222222222222</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="7">
         <v>0.17777777777777701</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="7">
         <v>0.37777777777777699</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="7">
         <v>0.155555555555555</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="7">
         <v>0.16666666666666599</v>
       </c>
     </row>
@@ -10574,19 +12083,19 @@
       <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="7">
         <v>0.30952380952380898</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="7">
         <v>0.119047619047619</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="7">
         <v>0.28095238095238001</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="7">
         <v>0.185714285714285</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="7">
         <v>0.104761904761904</v>
       </c>
     </row>
@@ -10594,19 +12103,19 @@
       <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="7">
         <v>0.16666666666666599</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="7">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="7">
         <v>0.2</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="7">
         <v>0.133333333333333</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="7">
         <v>0.41666666666666602</v>
       </c>
     </row>
@@ -10614,19 +12123,19 @@
       <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="7">
         <v>0.2</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="7">
         <v>0.33333333333333298</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="7">
         <v>0.133333333333333</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="7">
         <v>0.1</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="7">
         <v>0.233333333333333</v>
       </c>
     </row>
@@ -10634,19 +12143,19 @@
       <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="7">
         <v>0.22500000000000001</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="7">
         <v>0.26250000000000001</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="7">
         <v>0.21249999999999999</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="7">
         <v>0.21249999999999999</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="7">
         <v>8.7499999999999994E-2</v>
       </c>
     </row>
@@ -10654,19 +12163,19 @@
       <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="7">
         <v>0.35</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="7">
         <v>0.17499999999999999</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="7">
         <v>0.1125</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="7">
         <v>0.15</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="7">
         <v>0.21249999999999999</v>
       </c>
     </row>
@@ -10674,19 +12183,19 @@
       <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="7">
         <v>0.133333333333333</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="7">
         <v>0.2</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="7">
         <v>0.36666666666666597</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="7">
         <v>0.133333333333333</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="7">
         <v>0.16666666666666599</v>
       </c>
     </row>
@@ -10694,19 +12203,19 @@
       <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="7">
         <v>0.35</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="7">
         <v>0.3</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="7">
         <v>0.17499999999999999</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="7">
         <v>0.1</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
@@ -10714,19 +12223,19 @@
       <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="7">
         <v>0.19</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="7">
         <v>0.2</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="7">
         <v>0.27</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="7">
         <v>0.21</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="7">
         <v>0.13</v>
       </c>
     </row>
@@ -10734,19 +12243,19 @@
       <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="7">
         <v>0.266666666666666</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="7">
         <v>6.6666666666666596E-2</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="7">
         <v>0.266666666666666</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="7">
         <v>0.266666666666666</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="7">
         <v>0.133333333333333</v>
       </c>
     </row>
@@ -10754,19 +12263,19 @@
       <c r="B20" t="s">
         <v>22</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="7">
         <v>0.3</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="7">
         <v>0</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="7">
         <v>0</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="7">
         <v>0.4</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="7">
         <v>0.3</v>
       </c>
     </row>
@@ -10774,19 +12283,19 @@
       <c r="B21" t="s">
         <v>23</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="7">
         <v>0.27</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="7">
         <v>0.21</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="7">
         <v>0.2</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="7">
         <v>0.18</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="7">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -10798,10 +12307,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6281B7D0-C902-4CA8-A7D4-9743C37C8C4C}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10827,19 +12336,19 @@
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="7">
         <v>0.58064516129032195</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="7">
         <v>9.6774193548387094E-2</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="7">
         <v>9.6774193548387094E-2</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="7">
         <v>0.12903225806451599</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="7">
         <v>9.6774193548387094E-2</v>
       </c>
     </row>
@@ -10847,19 +12356,19 @@
       <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="7">
         <v>0.31578947368421001</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="7">
         <v>0.20526315789473601</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="7">
         <v>0.157894736842105</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="7">
         <v>0.2</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="7">
         <v>0.121052631578947</v>
       </c>
     </row>
@@ -10867,19 +12376,19 @@
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="7">
         <v>0.21548821548821501</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="7">
         <v>0.168350168350168</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="7">
         <v>0.228956228956228</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="7">
         <v>0.21212121212121199</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="7">
         <v>0.17508417508417501</v>
       </c>
     </row>
@@ -10887,19 +12396,19 @@
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="7">
         <v>0.17747440273037501</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="7">
         <v>0.18088737201365099</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="7">
         <v>0.215017064846416</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="7">
         <v>0.19453924914675699</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="7">
         <v>0.23208191126279801</v>
       </c>
     </row>
@@ -10907,19 +12416,19 @@
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="7">
         <v>0.17241379310344801</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="7">
         <v>0.2</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="7">
         <v>0.2</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="7">
         <v>0.23448275862068901</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="7">
         <v>0.19310344827586201</v>
       </c>
     </row>
@@ -10927,19 +12436,19 @@
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="7">
         <v>0.27777777777777701</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="7">
         <v>0.14285714285714199</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="7">
         <v>0.27777777777777701</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="7">
         <v>0.14285714285714199</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="7">
         <v>0.158730158730158</v>
       </c>
     </row>
@@ -10947,19 +12456,19 @@
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="7">
         <v>0.17499999999999999</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="7">
         <v>0.25</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="7">
         <v>0.35</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="7">
         <v>0.16250000000000001</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="7">
         <v>6.25E-2</v>
       </c>
     </row>
@@ -10967,19 +12476,19 @@
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="7">
         <v>0.28787878787878701</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="7">
         <v>0.15151515151515099</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="7">
         <v>0.19696969696969599</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="7">
         <v>0.28787878787878701</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="7">
         <v>7.5757575757575704E-2</v>
       </c>
     </row>
@@ -10987,24 +12496,32 @@
       <c r="A10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="7">
         <v>0.27160493827160398</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="7">
         <v>0.18518518518518501</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="7">
         <v>0.19753086419752999</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="7">
         <v>0.19753086419752999</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="7">
         <v>0.148148148148148</v>
       </c>
+    </row>
+    <row r="23" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>